--- a/CourseProposal/json_output/instructional_methods_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_dataframe.xlsx
@@ -444,7 +444,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -458,7 +458,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -556,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -598,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -612,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -626,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -654,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -710,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -766,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
